--- a/Simulationen.xlsx
+++ b/Simulationen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhilippElian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8CBD2-4ECE-4D13-9E37-7D8DB5AEC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A1556-283D-47AA-A170-2CEA0BF13B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-190" windowWidth="38620" windowHeight="21100" xr2:uid="{10463C9A-8BD9-4506-BDA9-AC3178E8C4F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{10463C9A-8BD9-4506-BDA9-AC3178E8C4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="vor 1900" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="15">
   <si>
     <t>lc (V/A)</t>
   </si>
@@ -132,21 +132,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -484,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065EC1EB-DC91-466B-96F4-110F96E39EA3}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -6278,7 +6277,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A3" sqref="A3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6288,10 +6287,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="1">
         <v>0.83776595744680848</v>
       </c>
@@ -6357,10 +6355,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="1">
         <v>1.008</v>
       </c>
@@ -6379,7 +6376,7 @@
       <c r="H2" s="1">
         <v>16.8</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>22.44</v>
       </c>
       <c r="J2" s="1">
@@ -6432,67 +6429,67 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>29.000000000000004</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>43.430561030088036</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>47.666094943796331</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>49.696874509188007</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>51.30034660872311</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>52.611102874641503</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>53.289438031756355</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>4.7819427159032539</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>19.890086434579</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>24.462246024222335</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>26.802795983783756</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>28.824769580954513</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>30.573946802681441</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>31.498417675579947</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>23.713091704421185</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>38.078133713950827</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>42.645488104235504</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>44.846057735342384</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>46.632348225286499</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>48.128464576117267</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>48.906469186782473</v>
       </c>
     </row>
@@ -6503,67 +6500,67 @@
       <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>25.662685697640551</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>38.141873428790028</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>41.629502088743365</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>43.27113314034613</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>44.583280429603192</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>45.659341774206638</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>46.218142324799572</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>4.2104381483065279</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>17.594514688305974</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>21.626724545816401</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>23.673021470420775</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>25.424444224075017</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>26.94832944718366</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>27.768733324288874</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>21.03013548222653</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>33.552991307954827</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>37.352256141113628</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>39.162998245638406</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>40.612435514162613</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>41.825934894963076</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>42.462194089746994</v>
       </c>
     </row>
@@ -6574,67 +6571,67 @@
       <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>22.090272749215544</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>32.604523794122088</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>35.476259871479918</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>36.81772633387186</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>37.872904700504037</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>38.746036636881385</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>39.204244430500083</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3.6768379728765122</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>15.255975594619841</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>18.774537107237389</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>20.576583877307385</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>22.082206525168246</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>23.381921737718734</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>24.077198718561597</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>18.176491269190198</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>28.855452555084547</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>31.98933117999352</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>33.468037371268899</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>34.650748583671806</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>35.642609031262062</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>36.143802759097511</v>
       </c>
     </row>
@@ -6645,67 +6642,67 @@
       <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>18.514634378873108</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>27.2432181776026</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>29.581197852574071</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>30.663085111674871</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>31.540027330182774</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>32.233027505233814</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>32.59319475936686</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>3.1370356005736455</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>12.914501529678823</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>15.919638778856882</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>17.457995876476552</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>18.78217014141881</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>19.934557771293694</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>20.523969354412351</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>15.360798807980336</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>24.349432181848108</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>26.887749301387654</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>28.077659721018698</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>29.02766874409215</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>29.826382666241223</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>30.222455730944919</v>
       </c>
     </row>
@@ -6716,67 +6713,67 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>15.00445027404319</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>22.150030744004923</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>24.049819731235655</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>24.919589376167639</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>25.611963306287887</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>26.196876033596851</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>26.490900327538959</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>2.5505600568715203</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>10.628026700405746</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>13.257616960785334</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>14.551309739996876</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>15.628462467372406</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>16.559551397229388</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>17.033983564824883</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>12.579998089597865</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>19.975501153412857</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>22.021626978343878</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>22.992766961346021</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>23.761615445158924</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>24.375878242476524</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>24.703152350211177</v>
       </c>
     </row>
@@ -6787,67 +6784,67 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>16.463768115942024</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>7.6096001401480322</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>4.8123945738302147</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3.4898696403329654</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>2.4315241009601252</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>1.5500467774670623</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1.0729962607706089</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>20.028546313783167</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>15.950403066713525</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>10.966841437644803</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>8.3075582162128079</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>6.0961399509479648</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>4.1632555590955578</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>3.1010927474377947</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>20.537806592719889</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>10.197272031230797</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>6.647137083929322</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>4.8742167686110722</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>3.4208172289827643</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>2.2411287210616138</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>1.6248900499844621</v>
       </c>
     </row>
@@ -6858,67 +6855,67 @@
       <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>16.463768115942024</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>7.6096001401480322</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>4.8123945738302147</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3.4898696403329654</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2.4315241009601252</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>1.5500467774670623</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>1.0729962607706089</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>20.028546313783167</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>15.950403066713525</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>10.966841437644803</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>8.3075582162128079</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>6.0961399509479648</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>4.1632555590955578</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>3.1010927474377947</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>20.537806592719889</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>10.197272031230797</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>6.647137083929322</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>4.8742167686110722</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>3.4208172289827643</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>2.2411287210616138</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>1.6248900499844621</v>
       </c>
     </row>
@@ -6929,67 +6926,67 @@
       <c r="B10">
         <v>30</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>16.463768115942024</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>7.6096001401480322</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>4.8123945738302147</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>3.4898696403329654</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>2.4315241009601252</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.5500467774670623</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1.0729962607706089</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>20.028546313783167</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>15.950403066713525</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>10.966841437644803</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>8.3075582162128079</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>6.0961399509479648</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>4.1632555590955578</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>3.1010927474377947</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>20.537806592719889</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>10.197272031230797</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>6.647137083929322</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>4.8742167686110722</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>3.4208172289827643</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>2.2411287210616138</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>1.6248900499844621</v>
       </c>
     </row>
@@ -7000,67 +6997,67 @@
       <c r="B11">
         <v>40</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>16.463768115942024</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>7.6096001401480322</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>4.8123945738302147</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>3.4898696403329654</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>2.4315241009601252</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1.5500467774670623</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1.0729962607706089</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>20.028546313783167</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>15.950403066713525</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>10.966841437644803</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>8.3075582162128079</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>6.0961399509479648</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>4.1632555590955578</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>3.1010927474377947</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>20.537806592719889</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>10.197272031230797</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>6.647137083929322</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>4.8742167686110722</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>3.4208172289827643</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>2.2411287210616138</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>1.6248900499844621</v>
       </c>
     </row>
@@ -7071,67 +7068,67 @@
       <c r="B12">
         <v>50</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>16.463768115942024</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>7.6096001401480322</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>4.8123945738302147</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>3.4898696403329654</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2.4315241009601252</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1.5500467774670623</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>1.0729962607706089</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>20.028546313783167</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>15.950403066713525</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>10.966841437644803</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>8.3075582162128079</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>6.0961399509479648</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>4.1632555590955578</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>3.1010927474377947</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>20.537806592719889</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>10.197272031230797</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>6.647137083929322</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>4.8742167686110722</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>3.4208172289827643</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>2.2411287210616138</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>1.6248900499844621</v>
       </c>
     </row>
@@ -7142,67 +7139,67 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>10.579710144927535</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>5.0431393159024225</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3.2517328872950002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2.4323333856866136</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.74356969391668</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1.1850291656229084</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.8736481098698623</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>3.5917877129006737</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>3.4127536819319571</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>2.3695170660041232</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>1.8014484526328478</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>1.3464715440535402</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.9478199549940669</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>0.69489809250065093</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>9.8441649742227799</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>5.0542096357982125</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>3.3466792422188751</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>2.4918879606146471</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>1.806275211395969</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>1.229050795682729</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>0.9343776170737228</v>
       </c>
     </row>
@@ -7213,67 +7210,67 @@
       <c r="B14">
         <v>20</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>10.579710144927535</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>5.0431393159024225</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>3.2517328872950002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>2.4323333856866136</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1.74356969391668</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1.1850291656229084</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.8736481098698623</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>3.5917877129006737</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>3.4127536819319571</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>2.3695170660041232</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>1.8014484526328478</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>1.3464715440535402</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.9478199549940669</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>0.69489809250065093</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>9.8441649742227799</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>5.0542096357982125</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>3.3466792422188751</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>2.4918879606146471</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>1.806275211395969</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>1.229050795682729</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>0.9343776170737228</v>
       </c>
     </row>
@@ -7284,67 +7281,67 @@
       <c r="B15">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>10.579710144927535</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>5.0431393159024225</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>3.2517328872950002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>2.4323333856866136</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1.74356969391668</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1.1850291656229084</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.8736481098698623</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>3.5917877129006737</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>3.4127536819319571</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>2.3695170660041232</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>1.8014484526328478</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>1.3464715440535402</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.9478199549940669</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.69489809250065093</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>9.8441649742227799</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>5.0542096357982125</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>3.3466792422188751</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>2.4918879606146471</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>1.806275211395969</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>1.229050795682729</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>0.9343776170737228</v>
       </c>
     </row>
@@ -7355,67 +7352,67 @@
       <c r="B16">
         <v>40</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>10.579710144927535</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>5.0431393159024225</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>3.2517328872950002</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>2.4323333856866136</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1.74356969391668</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1.1850291656229084</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.8736481098698623</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>3.5917877129006737</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>3.4127536819319571</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>2.3695170660041232</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>1.8014484526328478</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>1.3464715440535402</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.9478199549940669</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>0.69489809250065093</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>9.8441649742227799</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>5.0542096357982125</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>3.3466792422188751</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>2.4918879606146471</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>1.806275211395969</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>1.229050795682729</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>0.9343776170737228</v>
       </c>
     </row>
@@ -7426,67 +7423,67 @@
       <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>10.579710144927535</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>5.0431393159024225</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>3.2517328872950002</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2.4323333856866136</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>1.74356969391668</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1.1850291656229084</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.8736481098698623</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>3.5917877129006737</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>3.4127536819319571</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>2.3695170660041232</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>1.8014484526328478</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>1.3464715440535402</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>0.9478199549940669</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>0.69489809250065093</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>9.8441649742227799</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>5.0542096357982125</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>3.3466792422188751</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>2.4918879606146471</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>1.806275211395969</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>1.229050795682729</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>0.9343776170737228</v>
       </c>
     </row>
@@ -7497,67 +7494,67 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>27.787439613526566</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>12.762230105548989</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>8.1378371865564851</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>5.9389560755981341</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>4.1961459515950761</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>2.7314973390522801</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1.9683210627772452</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>26.801333321729139</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>19.40692382157695</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>13.355977182428258</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>10.114626160453689</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>7.4157278595877063</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>5.0821709953498555</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>3.7966713120227591</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>31.213872832369937</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>15.374363143119108</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>10.062523813390467</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>7.4369685215575076</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>5.286840284224203</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>3.5170863247014017</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>2.592625755604594</v>
       </c>
     </row>
@@ -7568,67 +7565,67 @@
       <c r="B19">
         <v>20</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>27.787439613526566</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>12.762230105548989</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>8.1378371865564851</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>5.9389560755981341</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>4.1961459515950761</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>2.7314973390522801</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>1.9683210627772452</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>26.801333321729139</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>19.40692382157695</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>13.355977182428258</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>10.114626160453689</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>7.4157278595877063</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>5.0821709953498555</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>3.7966713120227591</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>31.213872832369937</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>15.374363143119108</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>10.062523813390467</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>7.4369685215575076</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>5.286840284224203</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>3.5170863247014017</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <v>2.592625755604594</v>
       </c>
     </row>
@@ -7639,67 +7636,67 @@
       <c r="B20">
         <v>30</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>27.787439613526566</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>12.762230105548989</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>8.1378371865564851</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>5.9389560755981341</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>4.1961459515950761</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2.7314973390522801</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1.9683210627772452</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>26.801333321729139</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>19.40692382157695</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>13.355977182428258</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>10.114626160453689</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>7.4157278595877063</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>5.0821709953498555</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>3.7966713120227591</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>31.213872832369937</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <v>15.374363143119108</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>10.062523813390467</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>7.4369685215575076</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>5.286840284224203</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>3.5170863247014017</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="3">
         <v>2.592625755604594</v>
       </c>
     </row>
@@ -7710,67 +7707,67 @@
       <c r="B21">
         <v>40</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>27.787439613526566</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>12.762230105548989</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>8.1378371865564851</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>5.9389560755981341</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>4.1961459515950761</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>2.7314973390522801</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>1.9683210627772452</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>26.801333321729139</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>19.40692382157695</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>13.355977182428258</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>10.114626160453689</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>7.4157278595877063</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>5.0821709953498555</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>3.7966713120227591</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>31.213872832369937</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <v>15.374363143119108</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <v>10.062523813390467</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>7.4369685215575076</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="3">
         <v>5.286840284224203</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <v>3.5170863247014017</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="3">
         <v>2.592625755604594</v>
       </c>
     </row>
@@ -7781,67 +7778,67 @@
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>27.787439613526566</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>12.762230105548989</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>8.1378371865564851</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>5.9389560755981341</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>4.1961459515950761</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>2.7314973390522801</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>1.9683210627772452</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>26.801333321729139</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>19.40692382157695</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>13.355977182428258</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>10.114626160453689</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>7.4157278595877063</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>5.0821709953498555</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>3.7966713120227591</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>31.213872832369937</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <v>15.374363143119108</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <v>10.062523813390467</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>7.4369685215575076</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="3">
         <v>5.286840284224203</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="3">
         <v>3.5170863247014017</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="3">
         <v>2.592625755604594</v>
       </c>
     </row>
@@ -7852,67 +7849,67 @@
       <c r="B23">
         <v>10</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>6.8019323671497549</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>9.4359041737835607</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>10.239981856067581</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>10.639233547981785</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>10.964414336518724</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>11.219946116447776</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>11.346587082239823</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>1.1292329918799693</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>4.212634669989801</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>5.1356010129827716</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>5.6371528673742617</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>6.0711220567931656</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>6.4543376579773826</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>6.6446738089016684</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>5.5577253554132122</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <v>8.2453470456457456</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>9.1368465761809894</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <v>9.5652133373116506</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="3">
         <v>9.9235430133841955</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="3">
         <v>10.2423210320422</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="3">
         <v>10.415448657512504</v>
       </c>
     </row>
@@ -7923,67 +7920,67 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>13.627536654044082</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>18.579079680839438</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>20.003951676639943</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>20.389653664327213</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>21.266552643568271</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>21.746915834753679</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>22.019549224209722</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>2.2910320444716747</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>8.3268801530542511</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>10.161846324849233</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>11.092782889782725</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>11.885624878690869</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>12.406205963770034</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>12.965902410346853</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>11.103268435190083</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>16.242434526839755</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <v>17.836713145554484</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>18.623080733036158</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <v>19.251177567465326</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="3">
         <v>19.800683918753748</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3">
         <v>20.086100668609753</v>
       </c>
     </row>
@@ -7994,67 +7991,67 @@
       <c r="B25">
         <v>30</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>20.125512913347819</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>26.931453090971814</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>28.801820932395106</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>29.706128959692425</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>30.437521978666037</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>31.05338488604399</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>31.396611519630866</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>3.491702355460391</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>12.315702144616248</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>14.939279339061351</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>16.263135785766369</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>17.393897268836323</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>18.377986176597972</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>18.906109096426128</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <v>16.41861010195711</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>23.64559556528625</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <v>25.779515131494435</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>26.775158026949907</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <v>27.601640443235141</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <v>28.304147630886877</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <v>28.673531770832451</v>
       </c>
     </row>
@@ -8065,67 +8062,67 @@
       <c r="B26">
         <v>40</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>26.170273619982844</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>34.426575047952277</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>36.6198325873237</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>37.646122469283192</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>38.500683254569267</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>39.210635485707122</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>39.585444629955013</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>4.7596713238145956</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>16.139801523355136</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>19.463409885658233</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>21.168483522992631</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>22.640409633831972</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <v>23.891698570817923</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>24.584931771584195</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>21.545368345685702</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <v>30.438161768739825</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>32.912271043640082</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>34.089222469593352</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="3">
         <v>35.053270743547429</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="3">
         <v>35.874796200700246</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="3">
         <v>36.314381559145851</v>
       </c>
     </row>
@@ -8136,395 +8133,225 @@
       <c r="B27">
         <v>50</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>31.746849674427324</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>41.014552162328343</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>43.4152736807604</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>44.553263612025958</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>45.471437124512249</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>46.240851940017613</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>46.664274330585663</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>5.9637626343179484</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>19.760263513808297</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>23.796567133710123</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>25.823576902984481</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>27.557899716570468</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>29.040295069288302</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <v>29.842801805208087</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <v>26.405578374247785</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <v>36.500599059387348</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <v>39.331370777347054</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <v>40.698588822924499</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="3">
         <v>41.799736815089275</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="3">
         <v>42.716018506940102</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="3">
         <v>43.226702638467337</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="W35" s="3"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="W36" s="3"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="W38" s="3"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="W39" s="3"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="W41" s="3"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="4"/>
+      <c r="I42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="W42" s="3"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="W44" s="3"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="W45" s="3"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="4"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="3"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="I47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="W47" s="3"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8533,14 +8360,1363 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137F84C-702A-4982-98C1-83C1CF2E823B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.83776595744680848</v>
+      </c>
+      <c r="D1">
+        <v>1.5501519756838908</v>
+      </c>
+      <c r="E1">
+        <v>1.8351063829787233</v>
+      </c>
+      <c r="F1">
+        <v>1.9885433715220946</v>
+      </c>
+      <c r="G1">
+        <v>2.1200607902735564</v>
+      </c>
+      <c r="H1">
+        <v>2.2340425531914891</v>
+      </c>
+      <c r="I1">
+        <v>2.2954173486088374</v>
+      </c>
+      <c r="J1">
+        <v>0.94311377245508976</v>
+      </c>
+      <c r="K1">
+        <v>1.954022988505747</v>
+      </c>
+      <c r="L1">
+        <v>2.4295774647887325</v>
+      </c>
+      <c r="M1">
+        <v>2.7060133630289531</v>
+      </c>
+      <c r="N1">
+        <v>2.9555084745762712</v>
+      </c>
+      <c r="O1">
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="P1">
+        <v>3.3077830188679247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.008</v>
+      </c>
+      <c r="D2">
+        <v>3.2639999999999993</v>
+      </c>
+      <c r="E2">
+        <v>5.52</v>
+      </c>
+      <c r="F2">
+        <v>7.7759999999999989</v>
+      </c>
+      <c r="G2">
+        <v>11.16</v>
+      </c>
+      <c r="H2">
+        <v>16.8</v>
+      </c>
+      <c r="I2">
+        <v>22.44</v>
+      </c>
+      <c r="J2">
+        <v>0.67199999999999993</v>
+      </c>
+      <c r="K2">
+        <v>2.1759999999999993</v>
+      </c>
+      <c r="L2">
+        <v>3.68</v>
+      </c>
+      <c r="M2">
+        <v>5.1839999999999993</v>
+      </c>
+      <c r="N2">
+        <v>7.44</v>
+      </c>
+      <c r="O2">
+        <v>11.2</v>
+      </c>
+      <c r="P2">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>25.274841999044028</v>
+      </c>
+      <c r="D3">
+        <v>39.118313294999126</v>
+      </c>
+      <c r="E3">
+        <v>43.344071326304835</v>
+      </c>
+      <c r="F3">
+        <v>45.345367114912946</v>
+      </c>
+      <c r="G3">
+        <v>46.962846813885619</v>
+      </c>
+      <c r="H3">
+        <v>48.304032416181954</v>
+      </c>
+      <c r="I3">
+        <v>49.018167727051534</v>
+      </c>
+      <c r="J3">
+        <v>20.156854543553283</v>
+      </c>
+      <c r="K3">
+        <v>62.031000252376543</v>
+      </c>
+      <c r="L3">
+        <v>38.092992814767378</v>
+      </c>
+      <c r="M3">
+        <v>40.379003361530785</v>
+      </c>
+      <c r="N3">
+        <v>42.06646892948784</v>
+      </c>
+      <c r="O3">
+        <v>43.571821480329618</v>
+      </c>
+      <c r="P3">
+        <v>44.367076624354951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>22.496363734310187</v>
+      </c>
+      <c r="D4">
+        <v>34.697988266988943</v>
+      </c>
+      <c r="E4">
+        <v>37.953060011883544</v>
+      </c>
+      <c r="F4">
+        <v>39.875886957157839</v>
+      </c>
+      <c r="G4">
+        <v>41.211918900874942</v>
+      </c>
+      <c r="H4">
+        <v>42.308751676566395</v>
+      </c>
+      <c r="I4">
+        <v>42.891702977487292</v>
+      </c>
+      <c r="J4">
+        <v>17.992428248133496</v>
+      </c>
+      <c r="K4">
+        <v>29.91566328966212</v>
+      </c>
+      <c r="L4">
+        <v>33.66459363356897</v>
+      </c>
+      <c r="M4">
+        <v>35.480494362440353</v>
+      </c>
+      <c r="N4">
+        <v>36.952330913628515</v>
+      </c>
+      <c r="O4">
+        <v>38.183632628578401</v>
+      </c>
+      <c r="P4">
+        <v>38.843911949812608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>19.487955061034889</v>
+      </c>
+      <c r="D5">
+        <v>29.89330990335133</v>
+      </c>
+      <c r="E5">
+        <v>32.802079246763441</v>
+      </c>
+      <c r="F5">
+        <v>34.167282238825848</v>
+      </c>
+      <c r="G5">
+        <v>35.239763940828297</v>
+      </c>
+      <c r="H5">
+        <v>36.152316504911994</v>
+      </c>
+      <c r="I5">
+        <v>32.967032967032971</v>
+      </c>
+      <c r="J5">
+        <v>15.648927821494475</v>
+      </c>
+      <c r="K5">
+        <v>25.96441838559802</v>
+      </c>
+      <c r="L5">
+        <v>29.058515923970884</v>
+      </c>
+      <c r="M5">
+        <v>30.547094008520791</v>
+      </c>
+      <c r="N5">
+        <v>31.776503419301417</v>
+      </c>
+      <c r="O5">
+        <v>32.812257512987443</v>
+      </c>
+      <c r="P5">
+        <v>33.349276072883008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>16.381812318606904</v>
+      </c>
+      <c r="D6">
+        <v>25.079278565057972</v>
+      </c>
+      <c r="E6">
+        <v>27.434581919359246</v>
+      </c>
+      <c r="F6">
+        <v>28.561400168953089</v>
+      </c>
+      <c r="G6">
+        <v>29.449746852764093</v>
+      </c>
+      <c r="H6">
+        <v>30.18078563490263</v>
+      </c>
+      <c r="I6">
+        <v>30.575041861284923</v>
+      </c>
+      <c r="J6">
+        <v>13.285248953001394</v>
+      </c>
+      <c r="K6">
+        <v>22.009539284029568</v>
+      </c>
+      <c r="L6">
+        <v>24.531767456098851</v>
+      </c>
+      <c r="M6">
+        <v>25.770219230248991</v>
+      </c>
+      <c r="N6">
+        <v>26.760132955544403</v>
+      </c>
+      <c r="O6">
+        <v>27.601122070400873</v>
+      </c>
+      <c r="P6">
+        <v>28.067358358179327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>13.246863704018708</v>
+      </c>
+      <c r="D7">
+        <v>20.532051748828849</v>
+      </c>
+      <c r="E7">
+        <v>22.505261174105595</v>
+      </c>
+      <c r="F7">
+        <v>23.408007239231065</v>
+      </c>
+      <c r="G7">
+        <v>24.149909201472763</v>
+      </c>
+      <c r="H7">
+        <v>24.713655639412757</v>
+      </c>
+      <c r="I7">
+        <v>25.025497304570653</v>
+      </c>
+      <c r="J7">
+        <v>10.951420406791057</v>
+      </c>
+      <c r="K7">
+        <v>18.11599442235191</v>
+      </c>
+      <c r="L7">
+        <v>20.195092628012457</v>
+      </c>
+      <c r="M7">
+        <v>21.213480854535259</v>
+      </c>
+      <c r="N7">
+        <v>22.042464898711135</v>
+      </c>
+      <c r="O7">
+        <v>22.729110341865223</v>
+      </c>
+      <c r="P7">
+        <v>23.063174788444705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20.723352275744865</v>
+      </c>
+      <c r="D8">
+        <v>10.173499614168724</v>
+      </c>
+      <c r="E8">
+        <v>6.6933489522322027</v>
+      </c>
+      <c r="F8">
+        <v>4.9524568970725102</v>
+      </c>
+      <c r="G8">
+        <v>3.5646151835881379</v>
+      </c>
+      <c r="H8">
+        <v>2.4383433049533276</v>
+      </c>
+      <c r="I8">
+        <v>1.8703927329091763</v>
+      </c>
+      <c r="J8">
+        <v>26.131966955976161</v>
+      </c>
+      <c r="K8">
+        <v>13.271851602591067</v>
+      </c>
+      <c r="L8">
+        <v>8.6180566795921116</v>
+      </c>
+      <c r="M8">
+        <v>6.4417906352079441</v>
+      </c>
+      <c r="N8">
+        <v>4.37714712184688</v>
+      </c>
+      <c r="O8">
+        <v>2.7998159372917386</v>
+      </c>
+      <c r="P8">
+        <v>1.9481382710877071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20.723352275744865</v>
+      </c>
+      <c r="D9">
+        <v>10.173499614168724</v>
+      </c>
+      <c r="E9">
+        <v>6.6933489522322027</v>
+      </c>
+      <c r="F9">
+        <v>4.9524568970725102</v>
+      </c>
+      <c r="G9">
+        <v>3.5646151835881379</v>
+      </c>
+      <c r="H9">
+        <v>2.4383433049533276</v>
+      </c>
+      <c r="I9">
+        <v>1.8703927329091763</v>
+      </c>
+      <c r="J9">
+        <v>26.131966955976161</v>
+      </c>
+      <c r="K9">
+        <v>13.271851602591067</v>
+      </c>
+      <c r="L9">
+        <v>8.6180566795921116</v>
+      </c>
+      <c r="M9">
+        <v>6.4417906352079441</v>
+      </c>
+      <c r="N9">
+        <v>4.37714712184688</v>
+      </c>
+      <c r="O9">
+        <v>2.7998159372917386</v>
+      </c>
+      <c r="P9">
+        <v>1.9481382710877071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>20.723352275744865</v>
+      </c>
+      <c r="D10">
+        <v>10.173499614168724</v>
+      </c>
+      <c r="E10">
+        <v>6.6933489522322027</v>
+      </c>
+      <c r="F10">
+        <v>4.9524568970725102</v>
+      </c>
+      <c r="G10">
+        <v>3.5646151835881379</v>
+      </c>
+      <c r="H10">
+        <v>2.4383433049533276</v>
+      </c>
+      <c r="I10">
+        <v>1.8703927329091763</v>
+      </c>
+      <c r="J10">
+        <v>26.131966955976161</v>
+      </c>
+      <c r="K10">
+        <v>13.271851602591067</v>
+      </c>
+      <c r="L10">
+        <v>8.6180566795921116</v>
+      </c>
+      <c r="M10">
+        <v>6.4417906352079441</v>
+      </c>
+      <c r="N10">
+        <v>4.37714712184688</v>
+      </c>
+      <c r="O10">
+        <v>2.7998159372917386</v>
+      </c>
+      <c r="P10">
+        <v>1.9481382710877071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>20.723352275744865</v>
+      </c>
+      <c r="D11">
+        <v>10.173499614168724</v>
+      </c>
+      <c r="E11">
+        <v>6.6933489522322027</v>
+      </c>
+      <c r="F11">
+        <v>4.9524568970725102</v>
+      </c>
+      <c r="G11">
+        <v>3.5646151835881379</v>
+      </c>
+      <c r="H11">
+        <v>2.4383433049533276</v>
+      </c>
+      <c r="I11">
+        <v>1.8703927329091763</v>
+      </c>
+      <c r="J11">
+        <v>26.131966955976161</v>
+      </c>
+      <c r="K11">
+        <v>13.271851602591067</v>
+      </c>
+      <c r="L11">
+        <v>8.6180566795921116</v>
+      </c>
+      <c r="M11">
+        <v>6.4417906352079441</v>
+      </c>
+      <c r="N11">
+        <v>4.37714712184688</v>
+      </c>
+      <c r="O11">
+        <v>2.7998159372917386</v>
+      </c>
+      <c r="P11">
+        <v>1.9481382710877071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>20.723352275744865</v>
+      </c>
+      <c r="D12">
+        <v>10.173499614168724</v>
+      </c>
+      <c r="E12">
+        <v>6.6933489522322027</v>
+      </c>
+      <c r="F12">
+        <v>4.9524568970725102</v>
+      </c>
+      <c r="G12">
+        <v>3.5646151835881379</v>
+      </c>
+      <c r="H12">
+        <v>2.4383433049533276</v>
+      </c>
+      <c r="I12">
+        <v>1.8703927329091763</v>
+      </c>
+      <c r="J12">
+        <v>26.131966955976161</v>
+      </c>
+      <c r="K12">
+        <v>13.271851602591067</v>
+      </c>
+      <c r="L12">
+        <v>8.6180566795921116</v>
+      </c>
+      <c r="M12">
+        <v>6.4417906352079441</v>
+      </c>
+      <c r="N12">
+        <v>4.37714712184688</v>
+      </c>
+      <c r="O12">
+        <v>2.7998159372917386</v>
+      </c>
+      <c r="P12">
+        <v>1.9481382710877071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>8.2744702320888042</v>
+      </c>
+      <c r="D13">
+        <v>4.0748761606053785</v>
+      </c>
+      <c r="E13">
+        <v>2.6779903683456951</v>
+      </c>
+      <c r="F13">
+        <v>1.9415950801648041</v>
+      </c>
+      <c r="G13">
+        <v>1.3972734004094267</v>
+      </c>
+      <c r="H13">
+        <v>0.96131565970138944</v>
+      </c>
+      <c r="I13">
+        <v>0.72634861128634265</v>
+      </c>
+      <c r="J13">
+        <v>8.3404789292063182</v>
+      </c>
+      <c r="K13">
+        <v>4.6763270800033618</v>
+      </c>
+      <c r="L13">
+        <v>3.1830369395553726</v>
+      </c>
+      <c r="M13">
+        <v>2.5926531818445619</v>
+      </c>
+      <c r="N13">
+        <v>1.8200283910579707</v>
+      </c>
+      <c r="O13">
+        <v>1.3188516179535203</v>
+      </c>
+      <c r="P13">
+        <v>1.0411421343313076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>8.2744702320888042</v>
+      </c>
+      <c r="D14">
+        <v>4.0748761606053785</v>
+      </c>
+      <c r="E14">
+        <v>2.6779903683456951</v>
+      </c>
+      <c r="F14">
+        <v>1.9415950801648041</v>
+      </c>
+      <c r="G14">
+        <v>1.3972734004094267</v>
+      </c>
+      <c r="H14">
+        <v>0.96131565970138944</v>
+      </c>
+      <c r="I14">
+        <v>0.72634861128634265</v>
+      </c>
+      <c r="J14">
+        <v>8.3404789292063182</v>
+      </c>
+      <c r="K14">
+        <v>4.6763270800033618</v>
+      </c>
+      <c r="L14">
+        <v>3.1830369395553726</v>
+      </c>
+      <c r="M14">
+        <v>2.5926531818445619</v>
+      </c>
+      <c r="N14">
+        <v>1.8200283910579707</v>
+      </c>
+      <c r="O14">
+        <v>1.3188516179535203</v>
+      </c>
+      <c r="P14">
+        <v>1.0411421343313076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>8.2744702320888042</v>
+      </c>
+      <c r="D15">
+        <v>4.0748761606053785</v>
+      </c>
+      <c r="E15">
+        <v>2.6779903683456951</v>
+      </c>
+      <c r="F15">
+        <v>1.9415950801648041</v>
+      </c>
+      <c r="G15">
+        <v>1.3972734004094267</v>
+      </c>
+      <c r="H15">
+        <v>0.96131565970138944</v>
+      </c>
+      <c r="I15">
+        <v>0.72634861128634265</v>
+      </c>
+      <c r="J15">
+        <v>8.3404789292063182</v>
+      </c>
+      <c r="K15">
+        <v>4.6763270800033618</v>
+      </c>
+      <c r="L15">
+        <v>3.1830369395553726</v>
+      </c>
+      <c r="M15">
+        <v>2.5926531818445619</v>
+      </c>
+      <c r="N15">
+        <v>1.8200283910579707</v>
+      </c>
+      <c r="O15">
+        <v>1.3188516179535203</v>
+      </c>
+      <c r="P15">
+        <v>1.0411421343313076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>8.2744702320888042</v>
+      </c>
+      <c r="D16">
+        <v>4.0748761606053785</v>
+      </c>
+      <c r="E16">
+        <v>2.6779903683456951</v>
+      </c>
+      <c r="F16">
+        <v>1.9415950801648041</v>
+      </c>
+      <c r="G16">
+        <v>1.3972734004094267</v>
+      </c>
+      <c r="H16">
+        <v>0.96131565970138944</v>
+      </c>
+      <c r="I16">
+        <v>0.72634861128634265</v>
+      </c>
+      <c r="J16">
+        <v>8.3404789292063182</v>
+      </c>
+      <c r="K16">
+        <v>4.6763270800033618</v>
+      </c>
+      <c r="L16">
+        <v>3.1830369395553726</v>
+      </c>
+      <c r="M16">
+        <v>2.5926531818445619</v>
+      </c>
+      <c r="N16">
+        <v>1.8200283910579707</v>
+      </c>
+      <c r="O16">
+        <v>1.3188516179535203</v>
+      </c>
+      <c r="P16">
+        <v>1.0411421343313076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>8.2744702320888042</v>
+      </c>
+      <c r="D17">
+        <v>4.0748761606053785</v>
+      </c>
+      <c r="E17">
+        <v>2.6779903683456951</v>
+      </c>
+      <c r="F17">
+        <v>1.9415950801648041</v>
+      </c>
+      <c r="G17">
+        <v>1.3972734004094267</v>
+      </c>
+      <c r="H17">
+        <v>0.96131565970138944</v>
+      </c>
+      <c r="I17">
+        <v>0.72634861128634265</v>
+      </c>
+      <c r="J17">
+        <v>8.3404789292063182</v>
+      </c>
+      <c r="K17">
+        <v>4.6763270800033618</v>
+      </c>
+      <c r="L17">
+        <v>3.1830369395553726</v>
+      </c>
+      <c r="M17">
+        <v>2.5926531818445619</v>
+      </c>
+      <c r="N17">
+        <v>1.8200283910579707</v>
+      </c>
+      <c r="O17">
+        <v>1.3188516179535203</v>
+      </c>
+      <c r="P17">
+        <v>1.0411421343313076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>29.645759201232146</v>
+      </c>
+      <c r="D18">
+        <v>14.300649690090362</v>
+      </c>
+      <c r="E18">
+        <v>9.3697123519458572</v>
+      </c>
+      <c r="F18">
+        <v>6.9411722063141053</v>
+      </c>
+      <c r="G18">
+        <v>5.0071867241604622</v>
+      </c>
+      <c r="H18">
+        <v>3.4014413793513221</v>
+      </c>
+      <c r="I18">
+        <v>2.5737613322999842</v>
+      </c>
+      <c r="J18">
+        <v>33.842936317055319</v>
+      </c>
+      <c r="K18">
+        <v>17.100614116261458</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>8.3621376591713865</v>
+      </c>
+      <c r="N18">
+        <v>5.7690014272469554</v>
+      </c>
+      <c r="O18">
+        <v>3.7619138290332477</v>
+      </c>
+      <c r="P18">
+        <v>2.6676119998227499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>29.645759201232146</v>
+      </c>
+      <c r="D19">
+        <v>14.300649690090362</v>
+      </c>
+      <c r="E19">
+        <v>9.3697123519458572</v>
+      </c>
+      <c r="F19">
+        <v>6.9411722063141053</v>
+      </c>
+      <c r="G19">
+        <v>5.0071867241604622</v>
+      </c>
+      <c r="H19">
+        <v>3.4014413793513221</v>
+      </c>
+      <c r="I19">
+        <v>2.5737613322999842</v>
+      </c>
+      <c r="J19">
+        <v>33.842936317055319</v>
+      </c>
+      <c r="K19">
+        <v>17.100614116261458</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>8.3621376591713865</v>
+      </c>
+      <c r="N19">
+        <v>5.7690014272469554</v>
+      </c>
+      <c r="O19">
+        <v>3.7619138290332477</v>
+      </c>
+      <c r="P19">
+        <v>2.6676119998227499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>29.645759201232146</v>
+      </c>
+      <c r="D20">
+        <v>14.300649690090362</v>
+      </c>
+      <c r="E20">
+        <v>9.3697123519458572</v>
+      </c>
+      <c r="F20">
+        <v>6.9411722063141053</v>
+      </c>
+      <c r="G20">
+        <v>5.0071867241604622</v>
+      </c>
+      <c r="H20">
+        <v>3.4014413793513221</v>
+      </c>
+      <c r="I20">
+        <v>2.5737613322999842</v>
+      </c>
+      <c r="J20">
+        <v>33.842936317055319</v>
+      </c>
+      <c r="K20">
+        <v>17.100614116261458</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>8.3621376591713865</v>
+      </c>
+      <c r="N20">
+        <v>5.7690014272469554</v>
+      </c>
+      <c r="O20">
+        <v>3.7619138290332477</v>
+      </c>
+      <c r="P20">
+        <v>2.6676119998227499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>29.645759201232146</v>
+      </c>
+      <c r="D21">
+        <v>14.300649690090362</v>
+      </c>
+      <c r="E21">
+        <v>9.3697123519458572</v>
+      </c>
+      <c r="F21">
+        <v>6.9411722063141053</v>
+      </c>
+      <c r="G21">
+        <v>5.0071867241604622</v>
+      </c>
+      <c r="H21">
+        <v>3.4014413793513221</v>
+      </c>
+      <c r="I21">
+        <v>2.5737613322999842</v>
+      </c>
+      <c r="J21">
+        <v>33.842936317055319</v>
+      </c>
+      <c r="K21">
+        <v>17.100614116261458</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>8.3621376591713865</v>
+      </c>
+      <c r="N21">
+        <v>5.7690014272469554</v>
+      </c>
+      <c r="O21">
+        <v>3.7619138290332477</v>
+      </c>
+      <c r="P21">
+        <v>2.6676119998227499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>29.645759201232146</v>
+      </c>
+      <c r="D22">
+        <v>14.300649690090362</v>
+      </c>
+      <c r="E22">
+        <v>9.3697123519458572</v>
+      </c>
+      <c r="F22">
+        <v>6.9411722063141053</v>
+      </c>
+      <c r="G22">
+        <v>5.0071867241604622</v>
+      </c>
+      <c r="H22">
+        <v>3.4014413793513221</v>
+      </c>
+      <c r="I22">
+        <v>2.5737613322999842</v>
+      </c>
+      <c r="J22">
+        <v>33.842936317055319</v>
+      </c>
+      <c r="K22">
+        <v>17.100614116261458</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>8.3621376591713865</v>
+      </c>
+      <c r="N22">
+        <v>5.7690014272469554</v>
+      </c>
+      <c r="O22">
+        <v>3.7619138290332477</v>
+      </c>
+      <c r="P22">
+        <v>2.6676119998227499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>5.624302936958947</v>
+      </c>
+      <c r="D23">
+        <v>8.0402260224528899</v>
+      </c>
+      <c r="E23">
+        <v>8.8279317974749425</v>
+      </c>
+      <c r="F23">
+        <v>9.1956939359889809</v>
+      </c>
+      <c r="G23">
+        <v>9.5099960799686407</v>
+      </c>
+      <c r="H23">
+        <v>9.7801094402623754</v>
+      </c>
+      <c r="I23">
+        <v>9.9151992502207857</v>
+      </c>
+      <c r="J23">
+        <v>4.4755829760535377</v>
+      </c>
+      <c r="K23">
+        <v>6.9119626482712189</v>
+      </c>
+      <c r="L23">
+        <v>7.7243010056510686</v>
+      </c>
+      <c r="M23">
+        <v>8.26926019936991</v>
+      </c>
+      <c r="N23">
+        <v>8.4757695015407304</v>
+      </c>
+      <c r="O23">
+        <v>8.7953413093840194</v>
+      </c>
+      <c r="P23">
+        <v>8.9611943425033314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>11.312826590529546</v>
+      </c>
+      <c r="D24">
+        <v>15.978044666012037</v>
+      </c>
+      <c r="E24">
+        <v>17.001716511520439</v>
+      </c>
+      <c r="F24">
+        <v>18.032966765014269</v>
+      </c>
+      <c r="G24">
+        <v>18.557398362556665</v>
+      </c>
+      <c r="H24">
+        <v>19.026034680973368</v>
+      </c>
+      <c r="I24">
+        <v>19.295570079883806</v>
+      </c>
+      <c r="J24">
+        <v>8.9697764429686355</v>
+      </c>
+      <c r="K24">
+        <v>13.637086935766195</v>
+      </c>
+      <c r="L24">
+        <v>15.168085679071808</v>
+      </c>
+      <c r="M24">
+        <v>15.908438805113656</v>
+      </c>
+      <c r="N24">
+        <v>16.529455624364974</v>
+      </c>
+      <c r="O24">
+        <v>17.043638892280256</v>
+      </c>
+      <c r="P24">
+        <v>17.328592065785088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>16.776493464405316</v>
+      </c>
+      <c r="D25">
+        <v>23.301117108070791</v>
+      </c>
+      <c r="E25">
+        <v>25.129135608735453</v>
+      </c>
+      <c r="F25">
+        <v>25.996924157473444</v>
+      </c>
+      <c r="G25">
+        <v>26.696130477610115</v>
+      </c>
+      <c r="H25">
+        <v>27.288754340664234</v>
+      </c>
+      <c r="I25">
+        <v>27.634011506299672</v>
+      </c>
+      <c r="J25">
+        <v>13.377309266761406</v>
+      </c>
+      <c r="K25">
+        <v>20.044027220675865</v>
+      </c>
+      <c r="L25">
+        <v>22.043370708914466</v>
+      </c>
+      <c r="M25">
+        <v>23.018810151040814</v>
+      </c>
+      <c r="N25">
+        <v>23.820877671808393</v>
+      </c>
+      <c r="O25">
+        <v>24.52607351877425</v>
+      </c>
+      <c r="P25">
+        <v>24.874876176944394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>22.057400838439211</v>
+      </c>
+      <c r="D26">
+        <v>29.883064116539494</v>
+      </c>
+      <c r="E26">
+        <v>32.042395097865771</v>
+      </c>
+      <c r="F26">
+        <v>33.070781824455366</v>
+      </c>
+      <c r="G26">
+        <v>33.932847564313086</v>
+      </c>
+      <c r="H26">
+        <v>34.642530882515523</v>
+      </c>
+      <c r="I26">
+        <v>35.011897417819696</v>
+      </c>
+      <c r="J26">
+        <v>17.617073480265667</v>
+      </c>
+      <c r="K26">
+        <v>25.860894176843651</v>
+      </c>
+      <c r="L26">
+        <v>28.273453371552616</v>
+      </c>
+      <c r="M26">
+        <v>29.468103923669997</v>
+      </c>
+      <c r="N26">
+        <v>30.443197724211569</v>
+      </c>
+      <c r="O26">
+        <v>31.299300645061212</v>
+      </c>
+      <c r="P26">
+        <v>31.742469059612699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>26.711673399957469</v>
+      </c>
+      <c r="D27">
+        <v>35.748440496128545</v>
+      </c>
+      <c r="E27">
+        <v>38.260514495712542</v>
+      </c>
+      <c r="F27">
+        <v>39.460770096407074</v>
+      </c>
+      <c r="G27">
+        <v>40.420338870099791</v>
+      </c>
+      <c r="H27">
+        <v>41.195654020144602</v>
+      </c>
+      <c r="I27">
+        <v>41.627456526024389</v>
+      </c>
+      <c r="J27">
+        <v>21.715834594049422</v>
+      </c>
+      <c r="K27">
+        <v>31.134638227547384</v>
+      </c>
+      <c r="L27">
+        <v>33.938329963385982</v>
+      </c>
+      <c r="M27">
+        <v>35.33217763728139</v>
+      </c>
+      <c r="N27">
+        <v>36.474697167160777</v>
+      </c>
+      <c r="O27">
+        <v>37.425524926093431</v>
+      </c>
+      <c r="P27">
+        <v>37.946531414617667</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
